--- a/data/trans_orig/P1438_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>19211</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12411</v>
+        <v>12218</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30316</v>
+        <v>29100</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03494567638610914</v>
+        <v>0.03494567638610915</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.022575742145681</v>
+        <v>0.0222244229187588</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05514614704481232</v>
+        <v>0.05293353311779481</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -762,19 +762,19 @@
         <v>27046</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19042</v>
+        <v>19396</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38118</v>
+        <v>37265</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0553764978497007</v>
+        <v>0.05537649784970069</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03898688553832474</v>
+        <v>0.03971243952904839</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07804518607577235</v>
+        <v>0.0762984085407741</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -783,19 +783,19 @@
         <v>46258</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35121</v>
+        <v>35171</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59809</v>
+        <v>59636</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04455754234876749</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03383011739466978</v>
+        <v>0.0338781192295083</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05761088765042498</v>
+        <v>0.05744358005183541</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>530536</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>519431</v>
+        <v>520647</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>537336</v>
+        <v>537529</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9650543236138909</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9448538529551874</v>
+        <v>0.9470664668822052</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9774242578543187</v>
+        <v>0.9777755770812411</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>646</v>
@@ -833,19 +833,19 @@
         <v>461365</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>450293</v>
+        <v>451146</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>469369</v>
+        <v>469015</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9446235021502994</v>
+        <v>0.9446235021502993</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9219548139242277</v>
+        <v>0.923701591459226</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9610131144616753</v>
+        <v>0.9602875604709517</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1178</v>
@@ -854,19 +854,19 @@
         <v>991900</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>978349</v>
+        <v>978522</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1003037</v>
+        <v>1002987</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9554424576512325</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.942389112349575</v>
+        <v>0.9425564199481646</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9661698826053303</v>
+        <v>0.9661218807704918</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>10455</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6286</v>
+        <v>6190</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17552</v>
+        <v>16336</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02163547717616117</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01300870595640572</v>
+        <v>0.01280919186779617</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03632303231565532</v>
+        <v>0.03380633640405051</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -979,19 +979,19 @@
         <v>22440</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16411</v>
+        <v>15725</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30364</v>
+        <v>30368</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05319770951137494</v>
+        <v>0.05319770951137493</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03890450712491486</v>
+        <v>0.03727923313849051</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07198214130981155</v>
+        <v>0.07199283892144306</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -1000,19 +1000,19 @@
         <v>32895</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24562</v>
+        <v>24540</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42994</v>
+        <v>42726</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03634615311430926</v>
+        <v>0.03634615311430924</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02713965620750518</v>
+        <v>0.02711509798257125</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04750515872370584</v>
+        <v>0.04720970582288726</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>472757</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>465660</v>
+        <v>466876</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476926</v>
+        <v>477022</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9783645228238388</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9636769676843446</v>
+        <v>0.9661936635959494</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9869912940435942</v>
+        <v>0.9871908081322038</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>551</v>
@@ -1050,19 +1050,19 @@
         <v>399383</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>391459</v>
+        <v>391455</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>405412</v>
+        <v>406098</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9468022904886252</v>
+        <v>0.946802290488625</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9280178586901884</v>
+        <v>0.9280071610785571</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9610954928750844</v>
+        <v>0.9627207668615095</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1016</v>
@@ -1071,19 +1071,19 @@
         <v>872140</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>862041</v>
+        <v>862309</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>880473</v>
+        <v>880495</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9636538468856908</v>
+        <v>0.9636538468856906</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9524948412762944</v>
+        <v>0.9527902941771126</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.972860343792495</v>
+        <v>0.9728849020174286</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>30538</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20486</v>
+        <v>21329</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41646</v>
+        <v>42689</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06487137539891595</v>
+        <v>0.06487137539891598</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04351824581303311</v>
+        <v>0.04530994790695177</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08846933238305631</v>
+        <v>0.0906832478540054</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -1196,19 +1196,19 @@
         <v>19749</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14095</v>
+        <v>14155</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26490</v>
+        <v>26701</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1053319436350494</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07517526659279093</v>
+        <v>0.07549664251343421</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1412796614917884</v>
+        <v>0.1424063631337643</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -1217,19 +1217,19 @@
         <v>50287</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39733</v>
+        <v>40434</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63428</v>
+        <v>64102</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07639640943289806</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06036240995766769</v>
+        <v>0.06142674713509638</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09635993760729035</v>
+        <v>0.09738426073398834</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>440205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>429097</v>
+        <v>428054</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>450257</v>
+        <v>449414</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9351286246010841</v>
+        <v>0.935128624601084</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9115306676169436</v>
+        <v>0.9093167521459945</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9564817541869669</v>
+        <v>0.9546900520930481</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>253</v>
@@ -1267,19 +1267,19 @@
         <v>167748</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>161007</v>
+        <v>160796</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>173402</v>
+        <v>173342</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8946680563649506</v>
+        <v>0.8946680563649504</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8587203385082115</v>
+        <v>0.8575936368662356</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9248247334072088</v>
+        <v>0.9245033574865659</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>704</v>
@@ -1288,19 +1288,19 @@
         <v>607954</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>594813</v>
+        <v>594139</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>618508</v>
+        <v>617807</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9236035905671018</v>
+        <v>0.923603590567102</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9036400623927097</v>
+        <v>0.9026157392660117</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9396375900423322</v>
+        <v>0.9385732528649036</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>66311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53573</v>
+        <v>53338</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83822</v>
+        <v>82495</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05863812299569846</v>
+        <v>0.05863812299569844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04737387155829366</v>
+        <v>0.04716675500732736</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07412312875055746</v>
+        <v>0.07294993501490959</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -1413,19 +1413,19 @@
         <v>62727</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50967</v>
+        <v>51077</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75389</v>
+        <v>75795</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07283634452953457</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05918013456122049</v>
+        <v>0.05930843111611834</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08753856382054985</v>
+        <v>0.08801035604025256</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -1434,19 +1434,19 @@
         <v>129038</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>112249</v>
+        <v>110552</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>151856</v>
+        <v>150020</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06477633920470359</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05634850183490342</v>
+        <v>0.05549631533199531</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07623061773868982</v>
+        <v>0.07530902987028934</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1064534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1047023</v>
+        <v>1048350</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1077272</v>
+        <v>1077507</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9413618770043017</v>
+        <v>0.9413618770043015</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9258768712494424</v>
+        <v>0.9270500649850905</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.952626128441706</v>
+        <v>0.9528332449926724</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1125</v>
@@ -1484,19 +1484,19 @@
         <v>798484</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>785822</v>
+        <v>785416</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>810244</v>
+        <v>810134</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9271636554704654</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9124614361794501</v>
+        <v>0.9119896439597474</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9408198654387796</v>
+        <v>0.9406915688838814</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2156</v>
@@ -1505,19 +1505,19 @@
         <v>1863018</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1840200</v>
+        <v>1842036</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1879807</v>
+        <v>1881504</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9352236607952963</v>
+        <v>0.9352236607952965</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9237693822613098</v>
+        <v>0.9246909701297107</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9436514981650965</v>
+        <v>0.9445036846680046</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>32147</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23592</v>
+        <v>23159</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45350</v>
+        <v>43770</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05669892537302931</v>
+        <v>0.05669892537302929</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04161051290853651</v>
+        <v>0.04084615128075021</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07998623675964436</v>
+        <v>0.07719965489240832</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>201</v>
@@ -1630,19 +1630,19 @@
         <v>105387</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>90154</v>
+        <v>91552</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>120142</v>
+        <v>120373</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1269530722920955</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1086027499965515</v>
+        <v>0.1102865382779004</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1447278237429652</v>
+        <v>0.1450060708274458</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>243</v>
@@ -1651,19 +1651,19 @@
         <v>137534</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>121124</v>
+        <v>120047</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>156201</v>
+        <v>156529</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09844235277477656</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08669643555708668</v>
+        <v>0.08592563745498197</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1118033563988867</v>
+        <v>0.1120381463806606</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>534829</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>521626</v>
+        <v>523206</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>543384</v>
+        <v>543817</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9433010746269708</v>
+        <v>0.9433010746269705</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9200137632403552</v>
+        <v>0.9228003451075916</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9583894870914635</v>
+        <v>0.9591538487192497</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1088</v>
@@ -1701,19 +1701,19 @@
         <v>724740</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>709985</v>
+        <v>709754</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>739973</v>
+        <v>738575</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8730469277079045</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8552721762570349</v>
+        <v>0.8549939291725542</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8913972500034486</v>
+        <v>0.8897134617220995</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1592</v>
@@ -1722,19 +1722,19 @@
         <v>1259569</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1240902</v>
+        <v>1240574</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1275979</v>
+        <v>1277056</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9015576472252236</v>
+        <v>0.9015576472252234</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8881966436011134</v>
+        <v>0.8879618536193392</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9133035644429134</v>
+        <v>0.9140743625450179</v>
       </c>
     </row>
     <row r="18">
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4140</v>
+        <v>4388</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005134643163479589</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01745157153752636</v>
+        <v>0.01849591482682272</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>133</v>
@@ -1847,19 +1847,19 @@
         <v>74038</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61843</v>
+        <v>62944</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>87100</v>
+        <v>90852</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.08776438826176425</v>
+        <v>0.08776438826176426</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07330886696690853</v>
+        <v>0.07461383631091513</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1032487486033147</v>
+        <v>0.1076956286583726</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>135</v>
@@ -1868,19 +1868,19 @@
         <v>75256</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>62956</v>
+        <v>62707</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>89215</v>
+        <v>89446</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06962815988443304</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05824787951812841</v>
+        <v>0.05801769854275465</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08254383528628903</v>
+        <v>0.08275706412721585</v>
       </c>
     </row>
     <row r="20">
@@ -1897,7 +1897,7 @@
         <v>236010</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>233088</v>
+        <v>232840</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>237228</v>
@@ -1906,7 +1906,7 @@
         <v>0.9948653568365204</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9825484284624735</v>
+        <v>0.9815040851731771</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1918,19 +1918,19 @@
         <v>769558</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>756496</v>
+        <v>752744</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>781753</v>
+        <v>780652</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9122356117382356</v>
+        <v>0.9122356117382359</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8967512513966852</v>
+        <v>0.8923043713416273</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9266911330330916</v>
+        <v>0.9253861636890849</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1135</v>
@@ -1939,19 +1939,19 @@
         <v>1005568</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>991609</v>
+        <v>991378</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1017868</v>
+        <v>1018117</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9303718401155667</v>
+        <v>0.930371840115567</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9174561647137111</v>
+        <v>0.917242935872784</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9417521204818716</v>
+        <v>0.941982301457245</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>159879</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>139114</v>
+        <v>137892</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>186558</v>
+        <v>183693</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04649339342799026</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04045486727787403</v>
+        <v>0.04009949446084663</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05425160117688493</v>
+        <v>0.05341845088984561</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>552</v>
@@ -2064,19 +2064,19 @@
         <v>311388</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>286925</v>
+        <v>285722</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>336460</v>
+        <v>337907</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08571896070589591</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07898455690825321</v>
+        <v>0.07865346711590704</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09262078784256364</v>
+        <v>0.09301904970880708</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>755</v>
@@ -2085,19 +2085,19 @@
         <v>471268</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>432583</v>
+        <v>438990</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>501822</v>
+        <v>505949</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06664400607614201</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06117340945399273</v>
+        <v>0.06207949479277314</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07096489161736746</v>
+        <v>0.07154847146185574</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>3278872</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3252193</v>
+        <v>3255058</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3299637</v>
+        <v>3300859</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9535066065720097</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.945748398823115</v>
+        <v>0.9465815491101542</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9595451327221258</v>
+        <v>0.9599005055391533</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4688</v>
@@ -2135,19 +2135,19 @@
         <v>3321278</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3296206</v>
+        <v>3294759</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3345741</v>
+        <v>3346944</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.914281039294104</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9073792121574357</v>
+        <v>0.9069809502911929</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9210154430917468</v>
+        <v>0.9213465328840929</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7781</v>
@@ -2156,19 +2156,19 @@
         <v>6600149</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6569595</v>
+        <v>6565468</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6638834</v>
+        <v>6632427</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9333559939238579</v>
+        <v>0.9333559939238582</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9290351083826325</v>
+        <v>0.9284515285381445</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9388265905460073</v>
+        <v>0.9379205052072269</v>
       </c>
     </row>
     <row r="24">
